--- a/Documents/20_外部設計/librariansテーブル設計書.xlsx
+++ b/Documents/20_外部設計/librariansテーブル設計書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="95">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -49,85 +49,88 @@
     <t xml:space="preserve">備考</t>
   </si>
   <si>
+    <t xml:space="preserve">在庫ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIGINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> auto increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">資料ID</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIGINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">○</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> auto increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR</t>
+    <t xml:space="preserve">document_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入荷年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">register_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃棄年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※資料管理機能で使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documents（資料目録）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto increment</t>
   </si>
   <si>
     <t xml:space="preserve">ISBN番号</t>
   </si>
   <si>
-    <t xml:space="preserve">document_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入荷年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATETIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廃棄年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disposal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※資料管理機能で使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documents（資料目録）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto increment</t>
-  </si>
-  <si>
     <t xml:space="preserve">isbn</t>
   </si>
   <si>
     <t xml:space="preserve">分類コード</t>
   </si>
   <si>
-    <t xml:space="preserve">category_code</t>
+    <t xml:space="preserve">category_id</t>
   </si>
   <si>
     <t xml:space="preserve">0~9のうちいずれか</t>
@@ -275,6 +278,33 @@
   </si>
   <si>
     <t xml:space="preserve">※資料目録で使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reminders（督促者一覧）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">督促ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lending_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話の有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_tell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郵送の有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_mail</t>
   </si>
 </sst>
 </file>
@@ -591,13 +621,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -799,7 +829,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
@@ -820,10 +850,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
@@ -856,10 +886,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>11</v>
@@ -874,15 +904,15 @@
         <v>21</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -896,15 +926,15 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -920,10 +950,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>24</v>
@@ -943,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -976,7 +1006,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>10</v>
@@ -997,10 +1027,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
@@ -1016,7 +1046,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>19</v>
@@ -1035,10 +1065,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
@@ -1049,18 +1079,18 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>24</v>
@@ -1071,15 +1101,15 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -1093,7 +1123,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1134,7 +1164,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>10</v>
@@ -1155,10 +1185,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>11</v>
@@ -1174,10 +1204,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>20</v>
@@ -1191,7 +1221,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>19</v>
@@ -1208,15 +1238,15 @@
         <v>29</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>24</v>
@@ -1227,17 +1257,17 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H45" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1278,7 +1308,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>10</v>
@@ -1299,10 +1329,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>17</v>
@@ -1318,10 +1348,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>17</v>
@@ -1337,10 +1367,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>17</v>
@@ -1356,10 +1386,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>17</v>
@@ -1375,10 +1405,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>24</v>
@@ -1390,10 +1420,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>24</v>
@@ -1404,15 +1434,15 @@
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>24</v>
@@ -1426,7 +1456,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1467,7 +1497,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>10</v>
@@ -1488,10 +1518,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>17</v>
@@ -1507,17 +1537,130 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Documents/20_外部設計/librariansテーブル設計書.xlsx
+++ b/Documents/20_外部設計/librariansテーブル設計書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="94">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -91,18 +91,12 @@
     <t xml:space="preserve">入荷年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">arrival</t>
+    <t xml:space="preserve">created_at</t>
   </si>
   <si>
     <t xml:space="preserve">DATETIME</t>
   </si>
   <si>
-    <t xml:space="preserve">登録日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register_date</t>
-  </si>
-  <si>
     <t xml:space="preserve">廃棄年月日</t>
   </si>
   <si>
@@ -115,6 +109,9 @@
     <t xml:space="preserve">※資料管理機能で使用</t>
   </si>
   <si>
+    <t xml:space="preserve">※登録日時項目は削除</t>
+  </si>
+  <si>
     <t xml:space="preserve">documents（資料目録）</t>
   </si>
   <si>
@@ -127,6 +124,12 @@
     <t xml:space="preserve">isbn</t>
   </si>
   <si>
+    <t xml:space="preserve">BIGINTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10~13桁</t>
+  </si>
+  <si>
     <t xml:space="preserve">分類コード</t>
   </si>
   <si>
@@ -142,15 +145,15 @@
     <t xml:space="preserve">author</t>
   </si>
   <si>
+    <t xml:space="preserve">出版社名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher</t>
+  </si>
+  <si>
     <t xml:space="preserve">★</t>
   </si>
   <si>
-    <t xml:space="preserve">出版社名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publisher</t>
-  </si>
-  <si>
     <t xml:space="preserve">出版日</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t xml:space="preserve">貸出年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">lend_date</t>
-  </si>
-  <si>
     <t xml:space="preserve">現在の年月日</t>
   </si>
   <si>
@@ -202,24 +202,24 @@
     <t xml:space="preserve">予約ID</t>
   </si>
   <si>
+    <t xml:space="preserve">10～13桁</t>
+  </si>
+  <si>
     <t xml:space="preserve">確保済み資料ID</t>
   </si>
   <si>
     <t xml:space="preserve">予約年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
     <t xml:space="preserve">初期値＝現在の日時</t>
   </si>
   <si>
+    <t xml:space="preserve">※予約機能と返却機能で使用</t>
+  </si>
+  <si>
     <t xml:space="preserve">★２</t>
   </si>
   <si>
-    <t xml:space="preserve">※予約機能と返却機能で使用</t>
-  </si>
-  <si>
     <t xml:space="preserve">users（会員台帳）</t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">住所</t>
   </si>
   <si>
-    <t xml:space="preserve">adress</t>
+    <t xml:space="preserve">address</t>
   </si>
   <si>
     <t xml:space="preserve">電話番号</t>
@@ -256,9 +256,6 @@
     <t xml:space="preserve">入会年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">joined</t>
-  </si>
-  <si>
     <t xml:space="preserve">入会の日時</t>
   </si>
   <si>
@@ -292,7 +289,7 @@
     <t xml:space="preserve">電話の有無</t>
   </si>
   <si>
-    <t xml:space="preserve">check_tell</t>
+    <t xml:space="preserve">check_tel</t>
   </si>
   <si>
     <t xml:space="preserve">BOOLEAN</t>
@@ -368,7 +365,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +388,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0D1D2"/>
         <bgColor rgb="FFD0D2D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -483,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,15 +527,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,13 +632,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -733,7 +744,7 @@
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -757,162 +768,171 @@
         <v>24</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -925,91 +945,93 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="0" t="s">
-        <v>40</v>
+      <c r="H19" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>30</v>
-      </c>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>8</v>
+      <c r="A27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>11</v>
@@ -1019,56 +1041,54 @@
         <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
@@ -1077,306 +1097,306 @@
       <c r="E31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>40</v>
+      <c r="F31" s="7"/>
+      <c r="G31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="G32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>8</v>
+      <c r="A39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="7"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>8</v>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>50</v>
+      </c>
       <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="6" t="n">
-        <v>50</v>
+      <c r="D52" s="9" t="n">
+        <v>200</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="9" t="n">
-        <v>200</v>
+      <c r="D53" s="6" t="n">
+        <v>20</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>12</v>
@@ -1386,281 +1406,262 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="D72" s="7"/>
+      <c r="E72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>8</v>
+      <c r="G72" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="7"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="7" t="s">
-        <v>29</v>
+      <c r="G75" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B70:D70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
